--- a/CashFlow/CZR_cashflow.xlsx
+++ b/CashFlow/CZR_cashflow.xlsx
@@ -836,19 +836,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>400688000.0</v>
+        <v>526000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>289364000.0</v>
+        <v>423000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-1806000.0</v>
+        <v>131830000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>2240000.0</v>
+        <v>84699000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>29031000.0</v>
+        <v>37355000.0</v>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
